--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjiwallis/Desktop/Visual Studio/L2ELC-Laser-Tag/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5954A2E-D494-954A-BC8B-585CE0E0E953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE6736-4D78-DD45-8C48-C894FD1B7964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -3527,7 +3527,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="BA24" sqref="AZ24:BA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4892,17 +4892,17 @@
       </c>
       <c r="F15" s="75">
         <f t="shared" si="6"/>
-        <v>45126</v>
+        <v>45130</v>
       </c>
       <c r="G15" s="38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15" s="39">
         <v>0</v>
       </c>
       <c r="I15" s="40">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15" s="70"/>
       <c r="K15" s="36"/>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="D24" s="95"/>
       <c r="E24" s="74">
-        <v>45126</v>
+        <v>45129</v>
       </c>
       <c r="F24" s="75">
         <f t="shared" si="6"/>
-        <v>45130</v>
+        <v>45133</v>
       </c>
       <c r="G24" s="38">
         <v>5</v>
